--- a/Lesson24.xlsx
+++ b/Lesson24.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user2023\EXCEL課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user2023\EXCEL課題\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5533AD3-9BF4-41AF-A65D-79BF92493B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0332D43-509A-422D-A45B-30FA354A4087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{D6A41B15-A416-4108-AA4A-3191D6F64B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="10月" sheetId="4" r:id="rId1"/>
@@ -23,6 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">顧客一覧!$B$3:$G$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">顧客データ[[#All],[顧客名]:[電話番号]]</definedName>
     <definedName name="顧客" localSheetId="0">[1]顧客一覧!#REF!</definedName>
     <definedName name="顧客" localSheetId="3">商品一覧!#REF!</definedName>
     <definedName name="顧客">顧客一覧!#REF!</definedName>
@@ -582,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +649,15 @@
       <color theme="5"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -785,15 +796,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,8 +868,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1291,9 +1309,10 @@
   </sheetPr>
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3020,7 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1E678C-5773-4DFA-98FD-F165D6A1D35C}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4575,9 +4595,10 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4625,7 +4646,7 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
@@ -4823,10 +4844,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" tooltip="ウェブサイトを表示" xr:uid="{E17E517E-F8DE-42B8-9A30-AD40DEA621DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4841,6 +4865,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
